--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A30A9-2D0C-4669-BE92-DD3ACB241E84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6CDFEF57-47B0-4D7D-AD01-4D9B11B9F380}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="アカウント" sheetId="6" r:id="rId2"/>
     <sheet name="やり方" sheetId="2" r:id="rId3"/>
     <sheet name="一時メモ" sheetId="4" r:id="rId4"/>
-    <sheet name="一時メモ (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="記事メモ" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -699,11 +698,92 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>キーワード選定サイトをお気に入り登録する</t>
+    <rPh sb="5" eb="7">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商用フリー写真サイトをお気に入り登録する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firefoxでお気に入りのexportする</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード単体ではポイントサイトが上位に来る</t>
+    <rPh sb="5" eb="7">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード検索でサジェストが出ないものをどうするか？</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商用＋○○の「○○」の候補を調べる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1713,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68336DFD-C8A3-4376-8FB3-B30011324954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1721,9 +1801,9 @@
       <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,43 +1811,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AG4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AH5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AH11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI15" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A5AD13-0BF6-45C8-80BE-81A92EB45877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE77"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1789,7 +1869,7 @@
       <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="19" style="4" bestFit="1" customWidth="1"/>
@@ -1803,12 +1883,12 @@
     <col min="57" max="57" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1816,7 +1896,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C4" s="8"/>
       <c r="D4" s="66" t="s">
         <v>17</v>
@@ -1831,7 +1911,7 @@
       </c>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C5" s="9"/>
       <c r="D5" s="68" t="s">
         <v>20</v>
@@ -1844,7 +1924,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>22</v>
@@ -1865,7 +1945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +1987,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +2006,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
@@ -1945,7 +2025,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C11" s="26" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +2042,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +2057,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C13" s="26" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +2072,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
@@ -2011,7 +2091,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C15" s="26" t="s">
         <v>67</v>
       </c>
@@ -2026,7 +2106,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C16" s="26"/>
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
@@ -2035,7 +2115,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -2044,7 +2124,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" s="39" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -2052,7 +2132,7 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" s="39" customFormat="1" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C19" s="42" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2142,7 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>22</v>
@@ -2075,7 +2155,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C21" s="45" t="s">
         <v>49</v>
       </c>
@@ -2090,7 +2170,7 @@
       <c r="H21" s="41"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="35.25" x14ac:dyDescent="0.7">
       <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
@@ -2107,7 +2187,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C23" s="48" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2202,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C24" s="57" t="s">
         <v>54</v>
       </c>
@@ -2139,7 +2219,7 @@
       <c r="H24" s="64"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C25" s="48" t="s">
         <v>56</v>
       </c>
@@ -2155,7 +2235,7 @@
       <c r="I25" s="39"/>
       <c r="AE25" s="6"/>
     </row>
-    <row r="26" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C26" s="57" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2248,7 @@
       <c r="H26" s="60"/>
       <c r="AE26" s="61"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.7">
       <c r="C27" s="48" t="s">
         <v>59</v>
       </c>
@@ -2179,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="56" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" s="56" customFormat="1" ht="52.9" x14ac:dyDescent="0.7">
       <c r="C28" s="57" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2271,7 @@
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" ht="35.25" x14ac:dyDescent="0.7">
       <c r="C29" s="48" t="s">
         <v>30</v>
       </c>
@@ -2208,7 +2288,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="39"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.7">
       <c r="A30" s="35"/>
       <c r="C30" s="48" t="s">
         <v>61</v>
@@ -2216,127 +2296,127 @@
       <c r="D30" s="49"/>
       <c r="E30" s="43"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.7">
       <c r="A31" s="35"/>
       <c r="C31" s="48"/>
       <c r="D31" s="49"/>
       <c r="E31" s="43"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.7">
       <c r="A32" s="36"/>
       <c r="C32" s="48"/>
       <c r="D32" s="49"/>
       <c r="E32" s="43"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33" s="36"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34" s="36"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35" s="36"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36" s="36"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38" s="35"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39" s="37"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40" s="35"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41" s="35"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42" s="38"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43" s="35"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A44" s="35"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A45" s="36"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A46" s="38"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A47" s="35"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A48" s="35"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A49" s="35"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A51" s="38"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A52" s="38"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A53" s="35"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A54" s="35"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A55" s="35"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A57" s="35"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A58" s="35"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A59" s="36"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A60" s="36"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A61" s="36"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A62" s="36"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A63" s="36"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A64" s="38"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A65" s="35"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A66" s="35"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A67" s="35"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A68" s="35"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -2345,7 +2425,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A69" s="38"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2354,7 +2434,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A70" s="35"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2363,7 +2443,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A71" s="35"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2372,7 +2452,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A72" s="36"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2381,7 +2461,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A73" s="38"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2390,7 +2470,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A74" s="35"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2399,7 +2479,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A75" s="35"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2408,7 +2488,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A76" s="35"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -2417,7 +2497,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
@@ -2433,16 +2513,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{FF24A914-7D83-4F5C-B003-63027FE9DBD3}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{22E28196-C7AA-4082-88EF-7929585E7F81}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{744201A8-B87E-43F6-AAD8-C6DCFC7EC360}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{70EA775E-466E-44A3-A95C-A583E6AD5C10}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{7D06F937-2561-4949-A607-CC1A38960EF8}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{B67C3430-9443-4928-A350-D70A4D7F80AB}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{16F88952-D2C9-42A5-BC4A-98787ECE70E3}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{F6D1BE00-DB2B-4193-AD78-DF6D29561BB4}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{C28FD77B-8B5C-4AAF-A18E-02E634D81082}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{B062B1D8-724C-4D7D-8286-E8DEA32CB9C9}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D21" r:id="rId8"/>
+    <hyperlink ref="D22" r:id="rId9"/>
+    <hyperlink ref="D25" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -2450,188 +2530,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A8C50-D847-41C8-A72A-5EF490B0C0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C9" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D15" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D16" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D18" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D26" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="I31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E42" t="s">
         <v>72</v>
       </c>
@@ -2639,35 +2719,59 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="お名前ドットコム" xr:uid="{932A4EA4-6E0C-4CED-A294-8BB914718B32}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{2E1665C4-F76A-4510-829E-B70D4DA02973}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{C7A362CB-0E22-4AE7-B758-42AFB9F0EBEC}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{629BF7FC-B8F7-4E49-9D22-A24E3511442F}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{B1F130BB-5546-4B6B-A1E4-856221E1A5FC}"/>
-    <hyperlink ref="D26" r:id="rId6" xr:uid="{7547FF26-02BC-4B43-9246-287FFF2C0588}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{947E9ABA-E9C3-44F7-8435-640CB0EBFD4E}"/>
+    <hyperlink ref="D15" r:id="rId1" display="お名前ドットコム"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId4"/>
+    <hyperlink ref="D18" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC572CDB-844D-4CDA-A985-42767D726F89}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:I26"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DAC151-B446-4ED7-87DF-5342732E0082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,15 +2787,15 @@
       <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
@@ -2699,7 +2803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" t="s">
         <v>98</v>
       </c>
@@ -2707,7 +2811,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>99</v>
       </c>
@@ -2715,12 +2819,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C9" t="s">
         <v>101</v>
       </c>

--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD52C7-731B-42B1-93D6-44EBB46EA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14430" windowHeight="15630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="一時メモ" sheetId="4" r:id="rId4"/>
     <sheet name="記事メモ" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -546,26 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドメイン &gt; ドメイン設定 &gt; ネームサーバー設定</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドメイン名を選ぶ</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ネームサーバーの選択で「その他」タブを選択</t>
     <rPh sb="14" eb="15">
       <t>タ</t>
@@ -776,6 +757,70 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン名を選ぶ &gt; ネームサーバの「初期設定」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ドメイン &gt; ドメイン設定 &gt; ネームサーバー設定</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIRIUSについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトオプション &gt; iPhoneサイト設定</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同一URLで振り分け</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mobile Link Discovery 全てのページに表示する</t>
+    <rPh sb="22" eb="23">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -783,7 +828,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1793,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1801,9 +1846,9 @@
       <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:35" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,43 +1856,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AG4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AH5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AH11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI15" t="s">
         <v>12</v>
       </c>
@@ -1859,17 +1904,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="19" style="4" bestFit="1" customWidth="1"/>
@@ -1883,12 +1928,12 @@
     <col min="57" max="57" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1896,7 +1941,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C4" s="8"/>
       <c r="D4" s="66" t="s">
         <v>17</v>
@@ -1911,7 +1956,7 @@
       </c>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" s="9"/>
       <c r="D5" s="68" t="s">
         <v>20</v>
@@ -1924,7 +1969,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>22</v>
@@ -1945,7 +1990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1968,7 +2013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +2032,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2051,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
@@ -2025,7 +2070,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" s="26" t="s">
         <v>41</v>
       </c>
@@ -2042,7 +2087,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
@@ -2057,7 +2102,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" s="26" t="s">
         <v>45</v>
       </c>
@@ -2072,7 +2117,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2136,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C15" s="26" t="s">
         <v>67</v>
       </c>
@@ -2106,7 +2151,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="26"/>
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
@@ -2115,7 +2160,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -2124,7 +2169,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:31" s="39" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -2132,7 +2177,7 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:31" s="39" customFormat="1" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="C19" s="42" t="s">
         <v>52</v>
       </c>
@@ -2142,7 +2187,7 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>22</v>
@@ -2155,7 +2200,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C21" s="45" t="s">
         <v>49</v>
       </c>
@@ -2170,7 +2215,7 @@
       <c r="H21" s="41"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:31" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
@@ -2187,7 +2232,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C23" s="48" t="s">
         <v>51</v>
       </c>
@@ -2202,7 +2247,7 @@
       <c r="H23" s="41"/>
       <c r="I23" s="39"/>
     </row>
-    <row r="24" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C24" s="57" t="s">
         <v>54</v>
       </c>
@@ -2219,7 +2264,7 @@
       <c r="H24" s="64"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C25" s="48" t="s">
         <v>56</v>
       </c>
@@ -2235,7 +2280,7 @@
       <c r="I25" s="39"/>
       <c r="AE25" s="6"/>
     </row>
-    <row r="26" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C26" s="57" t="s">
         <v>57</v>
       </c>
@@ -2248,7 +2293,7 @@
       <c r="H26" s="60"/>
       <c r="AE26" s="61"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C27" s="48" t="s">
         <v>59</v>
       </c>
@@ -2259,7 +2304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="56" customFormat="1" ht="52.9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:31" s="56" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="C28" s="57" t="s">
         <v>60</v>
       </c>
@@ -2271,7 +2316,7 @@
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="1:31" ht="35.25" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C29" s="48" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2333,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="39"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A30" s="35"/>
       <c r="C30" s="48" t="s">
         <v>61</v>
@@ -2296,127 +2341,127 @@
       <c r="D30" s="49"/>
       <c r="E30" s="43"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A31" s="35"/>
       <c r="C31" s="48"/>
       <c r="D31" s="49"/>
       <c r="E31" s="43"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A32" s="36"/>
       <c r="C32" s="48"/>
       <c r="D32" s="49"/>
       <c r="E32" s="43"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="36"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="36"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="36"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="36"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="35"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="37"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="35"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="35"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="38"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="35"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="35"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="36"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="38"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="35"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="35"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="35"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="38"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="38"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="38"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="35"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="35"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="35"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="35"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="35"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" s="36"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" s="36"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" s="36"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" s="36"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" s="36"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" s="38"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="35"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="35"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="35"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="35"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -2425,7 +2470,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="38"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2434,7 +2479,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="35"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2443,7 +2488,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="35"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2452,7 +2497,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="36"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2461,7 +2506,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="38"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2470,7 +2515,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="35"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2479,7 +2524,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="35"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2488,7 +2533,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="35"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -2497,7 +2542,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
@@ -2513,16 +2558,16 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D21" r:id="rId8"/>
-    <hyperlink ref="D22" r:id="rId9"/>
-    <hyperlink ref="D25" r:id="rId10"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
@@ -2530,246 +2575,271 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F28" t="s">
+    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G29" t="s">
+    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="H30" t="s">
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="I31" t="s">
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D36" t="s">
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E37" t="s">
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E38" t="s">
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F39" t="s">
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E40" t="s">
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E41" t="s">
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E42" t="s">
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="お名前ドットコム"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
-    <hyperlink ref="D18" r:id="rId5"/>
-    <hyperlink ref="D26" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D15" r:id="rId1" display="お名前ドットコム" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:23" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>107</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W7" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="V6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="W7" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,46 +2857,46 @@
       <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:25" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>99</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C9" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD52C7-731B-42B1-93D6-44EBB46EA3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D812CF8-B004-40C7-85C3-5D2465F08AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14430" windowHeight="15630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -822,6 +822,14 @@
     <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワードツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -945,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1304,6 +1312,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1313,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,6 +1543,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,13 +1932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2160,7 +2187,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.4">
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -2169,7 +2196,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="1:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -2177,9 +2204,9 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="C19" s="42" t="s">
-        <v>52</v>
+    <row r="19" spans="3:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="C19" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
@@ -2187,231 +2214,274 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.4">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.4">
       <c r="C21" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="D21" s="41">
+        <v>415992</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="46" t="s">
+        <v>27</v>
+      </c>
       <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C22" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>64</v>
-      </c>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="C23" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>48</v>
-      </c>
+    <row r="23" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="C25" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>15</v>
+    </row>
+    <row r="24" spans="3:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="C24" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="39"/>
-      <c r="AE25" s="6"/>
-    </row>
-    <row r="26" spans="1:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="AE26" s="61"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C26" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="3:31" ht="37.5" x14ac:dyDescent="0.4">
       <c r="C27" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="56" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C28" s="57" t="s">
+      <c r="F27" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C30" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="39"/>
+      <c r="AE30" s="6"/>
+    </row>
+    <row r="31" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="AE31" s="61"/>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.4">
+      <c r="C32" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C33" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="62" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:31" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C29" s="48" t="s">
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C34" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D34" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E34" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F34" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A30" s="35"/>
-      <c r="C30" s="48" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="35"/>
+      <c r="C35" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A31" s="35"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="43"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A32" s="36"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="43"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="36"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="36"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="36"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="35"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="37"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="35"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="35"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="38"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D35" s="49"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="35"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="36"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="36"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="36"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="36"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="36"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="35"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="35"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="36"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="38"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="35"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="38"/>
+      <c r="A50" s="36"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="38"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" s="38"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="35"/>
@@ -2420,94 +2490,64 @@
       <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="35"/>
+      <c r="A55" s="38"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="38"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="35"/>
+      <c r="A57" s="38"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="35"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36"/>
+      <c r="A59" s="35"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" s="36"/>
+      <c r="A60" s="35"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="36"/>
+      <c r="A61" s="38"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="36"/>
+      <c r="A62" s="35"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="36"/>
+      <c r="A63" s="35"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" s="38"/>
+      <c r="A64" s="36"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="35"/>
+      <c r="A65" s="36"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="35"/>
+      <c r="A66" s="36"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="35"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
+      <c r="A67" s="36"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="35"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
+      <c r="A68" s="36"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="38"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="35"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="35"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="36"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
+      <c r="A72" s="35"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="38"/>
+      <c r="A73" s="35"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
@@ -2516,7 +2556,7 @@
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="35"/>
+      <c r="A74" s="38"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
@@ -2543,9 +2583,54 @@
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="36"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="38"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="35"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="35"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="35"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2565,12 +2650,13 @@
     <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D30" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{24F566AF-CADC-47E5-8255-7464F397B3CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D812CF8-B004-40C7-85C3-5D2465F08AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B739E8-AC55-4D2E-BA34-353E3DCEFBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="14430" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -830,6 +830,16 @@
   </si>
   <si>
     <t>メール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーに登録の準備</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1533,22 +1543,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1934,11 +1944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1970,31 +1980,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C4" s="8"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="66" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" s="9"/>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="68" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6" s="10"/>
@@ -2205,7 +2215,7 @@
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="3:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="66" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="41"/>
@@ -2219,7 +2229,7 @@
       <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="67" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -2662,11 +2672,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2724,7 +2734,7 @@
     </row>
     <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2734,141 +2744,146 @@
     </row>
     <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" t="s">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E39" t="s">
+    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F40" t="s">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E41" t="s">
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
+    <row r="49" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
+    <row r="50" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
+    <row r="51" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2880,7 +2895,7 @@
     <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="D16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B739E8-AC55-4D2E-BA34-353E3DCEFBBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="14430" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="14430" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="一時メモ" sheetId="4" r:id="rId4"/>
     <sheet name="記事メモ" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -680,22 +679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キーワード選定サイトをお気に入り登録する</t>
-    <rPh sb="5" eb="7">
-      <t>センテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商用フリー写真サイトをお気に入り登録する</t>
     <rPh sb="0" eb="2">
       <t>ショウヨウ</t>
@@ -839,6 +822,42 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選定基準</t>
+    <rPh sb="0" eb="2">
+      <t>センテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位でAmazon、楽天、カカクコム、アットコスメで独占されている時は</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドクセン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>googleがフィルターを掛けている可能性がある</t>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -846,7 +865,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1875,7 +1894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,9 +1902,9 @@
       <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,43 +1912,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AG4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AH5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AH11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="AI15" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1951,7 +1970,7 @@
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="19" style="4" bestFit="1" customWidth="1"/>
@@ -1965,12 +1984,12 @@
     <col min="57" max="57" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1978,7 +1997,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C4" s="8"/>
       <c r="D4" s="68" t="s">
         <v>17</v>
@@ -1993,7 +2012,7 @@
       </c>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C5" s="9"/>
       <c r="D5" s="70" t="s">
         <v>20</v>
@@ -2006,7 +2025,7 @@
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>22</v>
@@ -2027,7 +2046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2050,7 +2069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2088,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
@@ -2088,7 +2107,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
@@ -2107,7 +2126,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C11" s="26" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2143,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
@@ -2139,7 +2158,7 @@
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C13" s="26" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2173,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2192,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C15" s="26" t="s">
         <v>67</v>
       </c>
@@ -2188,7 +2207,7 @@
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="C16" s="26"/>
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
@@ -2197,7 +2216,7 @@
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
@@ -2206,7 +2225,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
@@ -2214,9 +2233,9 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="3:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:31" s="39" customFormat="1" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C19" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
@@ -2224,7 +2243,7 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
         <v>22</v>
@@ -2233,13 +2252,13 @@
         <v>23</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C21" s="45" t="s">
         <v>75</v>
       </c>
@@ -2255,7 +2274,7 @@
       <c r="G21" s="41"/>
       <c r="I21" s="39"/>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C22" s="48"/>
       <c r="D22" s="50"/>
       <c r="E22" s="43"/>
@@ -2264,7 +2283,7 @@
       <c r="H22" s="41"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:31" s="39" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
@@ -2272,7 +2291,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="3:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:31" s="39" customFormat="1" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C24" s="42" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2301,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
         <v>22</v>
@@ -2295,7 +2314,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="39"/>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C26" s="45" t="s">
         <v>49</v>
       </c>
@@ -2310,7 +2329,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="39"/>
     </row>
-    <row r="27" spans="3:31" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:31" ht="35.25" x14ac:dyDescent="0.7">
       <c r="C27" s="48" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2346,7 @@
       <c r="H27" s="41"/>
       <c r="I27" s="39"/>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C28" s="48" t="s">
         <v>51</v>
       </c>
@@ -2342,7 +2361,7 @@
       <c r="H28" s="41"/>
       <c r="I28" s="39"/>
     </row>
-    <row r="29" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C29" s="57" t="s">
         <v>54</v>
       </c>
@@ -2359,7 +2378,7 @@
       <c r="H29" s="64"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C30" s="48" t="s">
         <v>56</v>
       </c>
@@ -2375,7 +2394,7 @@
       <c r="I30" s="39"/>
       <c r="AE30" s="6"/>
     </row>
-    <row r="31" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:31" s="56" customFormat="1" x14ac:dyDescent="0.7">
       <c r="C31" s="57" t="s">
         <v>57</v>
       </c>
@@ -2388,7 +2407,7 @@
       <c r="H31" s="60"/>
       <c r="AE31" s="61"/>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.7">
       <c r="C32" s="48" t="s">
         <v>59</v>
       </c>
@@ -2399,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="52.9" x14ac:dyDescent="0.7">
       <c r="C33" s="57" t="s">
         <v>60</v>
       </c>
@@ -2411,7 +2430,7 @@
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="35.25" x14ac:dyDescent="0.7">
       <c r="C34" s="48" t="s">
         <v>30</v>
       </c>
@@ -2428,7 +2447,7 @@
       <c r="H34" s="41"/>
       <c r="I34" s="39"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="35"/>
       <c r="C35" s="48" t="s">
         <v>61</v>
@@ -2436,127 +2455,127 @@
       <c r="D35" s="49"/>
       <c r="E35" s="43"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="35"/>
       <c r="C36" s="48"/>
       <c r="D36" s="49"/>
       <c r="E36" s="43"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="36"/>
       <c r="C37" s="48"/>
       <c r="D37" s="49"/>
       <c r="E37" s="43"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="36"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="36"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="36"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="36"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="35"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="37"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="35"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="35"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="38"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="35"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A49" s="35"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A50" s="36"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A51" s="38"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A52" s="35"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A53" s="35"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A54" s="35"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A55" s="38"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A56" s="38"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A57" s="38"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A58" s="35"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A59" s="35"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A60" s="35"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A61" s="38"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A62" s="35"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A63" s="35"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A64" s="36"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A65" s="36"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A66" s="36"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A67" s="36"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A68" s="36"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A69" s="38"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A70" s="35"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A71" s="35"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A72" s="35"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A73" s="35"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2565,7 +2584,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A74" s="38"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2574,7 +2593,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A75" s="35"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2583,7 +2602,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A76" s="35"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -2592,7 +2611,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A77" s="36"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -2601,7 +2620,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A78" s="38"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -2610,7 +2629,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A79" s="35"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -2619,7 +2638,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A80" s="35"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -2628,7 +2647,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A81" s="35"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -2637,7 +2656,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.7">
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
@@ -2653,17 +2672,17 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D26" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D30" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{24F566AF-CADC-47E5-8255-7464F397B3CB}"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId5"/>
+    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8"/>
+    <hyperlink ref="D27" r:id="rId9"/>
+    <hyperlink ref="D30" r:id="rId10"/>
+    <hyperlink ref="F21" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -2671,276 +2690,289 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C8" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C9" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="54" t="s">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D23" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="54" t="s">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D24" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="54" t="s">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D26" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F20" t="s">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="54" t="s">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D31" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F25" t="s">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G26" t="s">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="2" t="s">
+    <row r="57" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="58" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
+    <row r="59" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D59" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D51" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" display="お名前ドットコム" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D23" r:id="rId1" display="お名前ドットコム"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="D24" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId5"/>
+    <hyperlink ref="D31" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="2" spans="1:23" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W7" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,15 +2990,15 @@
       <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
@@ -2974,7 +3006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" t="s">
         <v>96</v>
       </c>
@@ -2982,7 +3014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>97</v>
       </c>
@@ -2990,12 +3022,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C9" t="s">
         <v>99</v>
       </c>

--- a/アフィリエイト_メモ.xlsx
+++ b/アフィリエイト_メモ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="14430" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="14430" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="179">
   <si>
     <t>アフィリエイト</t>
     <phoneticPr fontId="1"/>
@@ -858,6 +858,775 @@
     </rPh>
     <rPh sb="18" eb="21">
       <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初にキーワードの答えを書く</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考：</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みやえら式</t>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://yuhan.jp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品説明、公式サイトにある情報は書かない</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中古ドメインで被リンクは無し</t>
+    <rPh sb="0" eb="2">
+      <t>チュウコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ドメインなら被リンクを付ける</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営者情報(実在住所・社名)を入れる</t>
+    <rPh sb="0" eb="3">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジツザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャメイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F65My5EHkwg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル例</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～の解約方法は？→～の解約方法はこの番号にかけろ！</t>
+    <rPh sb="2" eb="4">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～は？はCTRが低い</t>
+    <rPh sb="8" eb="9">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事の最低文字数の基準は無い</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自性</t>
+    <rPh sb="0" eb="3">
+      <t>ドクジセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミなら他のサイトに載ってない物を持ってくる</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーは見たいものしか見ない</t>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル命</t>
+    <rPh sb="4" eb="5">
+      <t>イノチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルには時間をかける</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「…」や記号、顔文字を入れると検索結果一覧で目立つ</t>
+    <rPh sb="4" eb="6">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カオモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴露、1番～、～の全て、～さようなら、</t>
+    <rPh sb="0" eb="2">
+      <t>バクロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短いタイトルも目立つ</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情景が浮かぶように</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～はいつまで？⇒答えの数字</t>
+    <rPh sb="8" eb="9">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑↑のサイトがよくわからなかった方へ</t>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→新シートを作る</t>
+    <rPh sb="1" eb="2">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字を入れる</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告主のサイトは期待を膨らませるように出来ている</t>
+    <rPh sb="0" eb="3">
+      <t>コウコクヌシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネガティブ要素で書く場合</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ページ目にある場合とそれ以外でのサイトの作り方は違う</t>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ページ目の時</t>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネガティブ系で押す</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以外</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詰め込む(網羅性)</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モウラセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位が上がったら個別ページにして、内部リンクを走らせる</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権威性</t>
+    <rPh sb="0" eb="3">
+      <t>ケンイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気性</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知識が必要</t>
+    <rPh sb="0" eb="2">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金がかかる</t>
+    <rPh sb="0" eb="1">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりやすい、知識不要</t>
+    <rPh sb="6" eb="8">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康アップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美容・健康に関するキーワードのアップデート</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/3/31現在</t>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病院名</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機器名、施術名</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セジュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独特の施術名などは有効</t>
+    <rPh sb="0" eb="2">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知識レベル初心者のキーワードは後回し</t>
+    <rPh sb="0" eb="2">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今まで色々試してきた</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分で勉強してるユーザーは金になりやすい</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦っている</t>
+    <rPh sb="0" eb="1">
+      <t>アセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでの失敗から来る不安を上回るキーワード(独自施術名など)で説得する記事</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セジュツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セットク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter裏垢、2chなどで濃いユーザーがいる(そこで使われている単語)</t>
+    <rPh sb="7" eb="8">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>病名以外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の専門用語は引っかからない</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ビョウメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>サジェストキーワードを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>詰め込む</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>共起語</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は必ず入れる</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アフィサイトは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不安を消すような</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サイトにする(問題解決)</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2693,9 +3462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2983,11 +3752,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3032,8 +3801,279 @@
         <v>99</v>
       </c>
     </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C22" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C48" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G62" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>